--- a/backend/reports/attendance_report_sem_id='7b3e9ed4-4a24-4487-94ce-9d7ee458a0df'.xlsx
+++ b/backend/reports/attendance_report_sem_id='7b3e9ed4-4a24-4487-94ce-9d7ee458a0df'.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,264 +437,1656 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>student_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2025-09-17</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 1)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 2)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 3)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 4)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 5)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 6)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 7)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 8)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 9)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 10)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 11)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 (Lec 12)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24MAL002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afsana Parveen </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24MAL003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Afsheen</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24MAL004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Alina Raza</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24MAL005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Fiza Kausar Khan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24MAL006</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gazala Parveen</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24MAL007</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">Haram Shaheem </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24MAL008</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">Mauwaz Ahmad Farooqui  </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24MAL009</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Md Ataullah</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24MAL010</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Md Ubaid</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24MAL011</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Md Areeb Inam</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Md Ataullah</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Md Ubaid</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24MAL012</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Mirza Adnan Baig</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24MAL013</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zaffer Iqbal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24MAL014</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mohd Suhail</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24MAL015</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mohd Uzaif</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24MAL016</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Mohd Rahil Hussain</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24MAL017</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Naureen Fatima</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24MAL018</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sufia Parween</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24MAL019</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Syed Vilayat Ali Rizvi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>24MAL020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tasneem Kausar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24MAL021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Mohd Shakir</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Mohd Suhail</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Mohd Uzaif</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Naureen Fatima</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Sufia Parween</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Syed Vilayat Ali Rizvi</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Tasneem Kausar</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Zaffer Iqbal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24MAL022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Zishan</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24MAL023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Zishan</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -709,7 +2101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,264 +2112,391 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>student_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-20 (Lec 1)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24MAL002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afsana Parveen </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24MAL003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Afsheen</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24MAL004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Alina Raza</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24MAL005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Fiza Kausar Khan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24MAL006</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gazala Parveen</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24MAL007</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">Haram Shaheem </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24MAL008</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">Mauwaz Ahmad Farooqui  </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24MAL009</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Md Ataullah</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24MAL010</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Md Ubaid</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24MAL011</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Md Areeb Inam</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Md Ataullah</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Md Ubaid</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24MAL012</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Mirza Adnan Baig</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24MAL013</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zaffer Iqbal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24MAL014</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mohd Suhail</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24MAL015</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mohd Uzaif</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24MAL016</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Mohd Rahil Hussain</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24MAL017</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Naureen Fatima</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24MAL018</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sufia Parween</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24MAL019</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Syed Vilayat Ali Rizvi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>24MAL020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tasneem Kausar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24MAL021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Mohd Shakir</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Mohd Suhail</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Mohd Uzaif</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Naureen Fatima</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Sufia Parween</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Syed Vilayat Ali Rizvi</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Tasneem Kausar</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Zaffer Iqbal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24MAL022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Zishan</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24MAL023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Zishan</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
